--- a/biology/Zoologie/Barbatula/Barbatula.xlsx
+++ b/biology/Zoologie/Barbatula/Barbatula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbatula est un genre de poissons benthiques d'eau douce de la famille des Nemacheilidae originaires d'Europe. Anciennement contenant beaucoup plus d’espèces, la révision de Maurice Kottelat de 2012[1] a réduit la taille de ce genre de près moitié et de nombreuses espèces ont été déplacés vers le genre Oxynoemacheilus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbatula est un genre de poissons benthiques d'eau douce de la famille des Nemacheilidae originaires d'Europe. Anciennement contenant beaucoup plus d’espèces, la révision de Maurice Kottelat de 2012 a réduit la taille de ce genre de près moitié et de nombreuses espèces ont été déplacés vers le genre Oxynoemacheilus.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (17 juillet 2015)[2] - (15 espèces):
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (17 juillet 2015) - (15 espèces):
 Barbatula altayensis Zhu, 1992
 Barbatula barbatula (Linnaeus, 1758)
 Barbatula bergamensis Erk'Akan, Nalbant &amp; Özeren, 2007 - (non reconnu par Kottelat, M. (2012) et Cao, L., Causse, R. &amp; Zang, E (2012))
 Barbatula compressirostris (Warpachowski, 1897) - (espèce inquirenda)
 Barbatula dgebuadzei (Prokofiev, 2003)
 Barbatula farsica (Nalbant &amp; Bianco, 1998) - (non reconnu par Kottelat, M. (2012) et Cao, L., Causse, R. &amp; Zang, E (2012))
-Barbatula gibba Cao, Causse &amp; Zhang, 2012[3]
+Barbatula gibba Cao, Causse &amp; Zhang, 2012
 Barbatula golubtsovi (Prokofiev, 2003)
 Barbatula nuda (Bleeker, 1864)
 Barbatula potaninorum (Prokofiev, 2007)
@@ -528,27 +542,95 @@
 Barbatula sawadai (Prokofiev, 2007)
 Barbatula sturanyi (Steindachner, 1892)
 Barbatula toni (Dybowski, 1869)
-Barbatula zetensis (Soric, 2000)
-Note
-Selon Kottelat, M. (2012) et Cao, L., Causse, R. &amp; Zang, E (2012) - (17 espèces)[1],[3]:
+Barbatula zetensis (Soric, 2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Barbatula</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbatula</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Kottelat, M. (2012) et Cao, L., Causse, R. &amp; Zang, E (2012) - (17 espèces),:
 Barbatula cobdonensis (Gundrizer, 1973) - (espèce inquirenda)
 Barbatula markakulensis (Men'shikov, 1939) - (espèce inquirenda)
 Barbatula oreas (D. S. Jordan &amp; Fowler, 1903)
-Barbatula tomiana (Ruzsky (ru), 1920)
-Anciennement
-Barbatula altayensis (Zhu, 1992)[4]
-Barbatula barbatula (Linnaeus, 1758)[5]
-Barbatula bergamensis(Erk' Akan, Nalbant &amp; Özeren, 2007)[6]
+Barbatula tomiana (Ruzsky (ru), 1920)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barbatula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbatula</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anciennement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Barbatula altayensis (Zhu, 1992)
+Barbatula barbatula (Linnaeus, 1758)
+Barbatula bergamensis(Erk' Akan, Nalbant &amp; Özeren, 2007)
 Barbatula brandtii (Kessler, 1877)
-Barbatula cinica (Erk' Akan, Nalbant &amp; Özeren, 2007)[6]
-Barbatula erdali (Erk' Akan, Nalbant &amp; Özeren, 2007)[6]
-Barbatula germencica (Erk'Akan, Nalbant &amp; Özeren, 2007)[6]
-Barbatula mediterraneus (Erk' Akan, Nalbant &amp; Özeren, 2007)[6]
-Barbatula paucilepis (Erk' Akan, Nalbant &amp; Özeren, 2007)[6]
-Barbatula phoxinoides (Erk' Akan, Nalbant &amp; Özeren, 2007)[6]
+Barbatula cinica (Erk' Akan, Nalbant &amp; Özeren, 2007)
+Barbatula erdali (Erk' Akan, Nalbant &amp; Özeren, 2007)
+Barbatula germencica (Erk'Akan, Nalbant &amp; Özeren, 2007)
+Barbatula mediterraneus (Erk' Akan, Nalbant &amp; Özeren, 2007)
+Barbatula paucilepis (Erk' Akan, Nalbant &amp; Özeren, 2007)
+Barbatula phoxinoides (Erk' Akan, Nalbant &amp; Özeren, 2007)
 Barbatula pulsiz (Krupp, 1992)
-Barbatula sturanyi (Steindachner, 1892)[7]
-Barbatula toni (Dybowski, 1869)[8],[9],[10],[11],[12],[13],[14],[15],[16],[17]</t>
+Barbatula sturanyi (Steindachner, 1892)
+Barbatula toni (Dybowski, 1869)</t>
         </is>
       </c>
     </row>
